--- a/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H2">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.292844182643</v>
+        <v>181.8232256666666</v>
       </c>
       <c r="N2">
-        <v>141.292844182643</v>
+        <v>545.4696769999999</v>
       </c>
       <c r="O2">
-        <v>0.5335176667404401</v>
+        <v>0.5898296910336229</v>
       </c>
       <c r="P2">
-        <v>0.5335176667404401</v>
+        <v>0.5898296910336229</v>
       </c>
       <c r="Q2">
-        <v>8611.882480960869</v>
+        <v>25983.87595455273</v>
       </c>
       <c r="R2">
-        <v>8611.882480960869</v>
+        <v>233854.8835909746</v>
       </c>
       <c r="S2">
-        <v>0.1886134445529393</v>
+        <v>0.3289282093479995</v>
       </c>
       <c r="T2">
-        <v>0.1886134445529393</v>
+        <v>0.3289282093479996</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H3">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.24362358528559</v>
+        <v>2.367786666666667</v>
       </c>
       <c r="N3">
-        <v>2.24362358528559</v>
+        <v>7.10336</v>
       </c>
       <c r="O3">
-        <v>0.008471857348402325</v>
+        <v>0.007681036748263821</v>
       </c>
       <c r="P3">
-        <v>0.008471857348402325</v>
+        <v>0.007681036748263821</v>
       </c>
       <c r="Q3">
-        <v>136.7501854730529</v>
+        <v>338.3741257912889</v>
       </c>
       <c r="R3">
-        <v>136.7501854730529</v>
+        <v>3045.3671321216</v>
       </c>
       <c r="S3">
-        <v>0.002995038957202302</v>
+        <v>0.004283456228042914</v>
       </c>
       <c r="T3">
-        <v>0.002995038957202302</v>
+        <v>0.004283456228042915</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H4">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I4">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J4">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.296082287781</v>
+        <v>124.0729296666667</v>
       </c>
       <c r="N4">
-        <v>121.296082287781</v>
+        <v>372.218789</v>
       </c>
       <c r="O4">
-        <v>0.4580104759111576</v>
+        <v>0.4024892722181133</v>
       </c>
       <c r="P4">
-        <v>0.4580104759111576</v>
+        <v>0.4024892722181133</v>
       </c>
       <c r="Q4">
-        <v>7393.068007839357</v>
+        <v>17730.93399897615</v>
       </c>
       <c r="R4">
-        <v>7393.068007839357</v>
+        <v>159578.4059907853</v>
       </c>
       <c r="S4">
-        <v>0.1619195368556788</v>
+        <v>0.2244547495743762</v>
       </c>
       <c r="T4">
-        <v>0.1619195368556788</v>
+        <v>0.2244547495743763</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H5">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>141.292844182643</v>
+        <v>181.8232256666666</v>
       </c>
       <c r="N5">
-        <v>141.292844182643</v>
+        <v>545.4696769999999</v>
       </c>
       <c r="O5">
-        <v>0.5335176667404401</v>
+        <v>0.5898296910336229</v>
       </c>
       <c r="P5">
-        <v>0.5335176667404401</v>
+        <v>0.5898296910336229</v>
       </c>
       <c r="Q5">
-        <v>8866.764186133987</v>
+        <v>11630.83337120923</v>
       </c>
       <c r="R5">
-        <v>8866.764186133987</v>
+        <v>104677.5003408831</v>
       </c>
       <c r="S5">
-        <v>0.1941957451094681</v>
+        <v>0.1472339692780319</v>
       </c>
       <c r="T5">
-        <v>0.1941957451094681</v>
+        <v>0.1472339692780319</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H6">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J6">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.24362358528559</v>
+        <v>2.367786666666667</v>
       </c>
       <c r="N6">
-        <v>2.24362358528559</v>
+        <v>7.10336</v>
       </c>
       <c r="O6">
-        <v>0.008471857348402325</v>
+        <v>0.007681036748263821</v>
       </c>
       <c r="P6">
-        <v>0.008471857348402325</v>
+        <v>0.007681036748263821</v>
       </c>
       <c r="Q6">
-        <v>140.7975143274781</v>
+        <v>151.46212524608</v>
       </c>
       <c r="R6">
-        <v>140.7975143274781</v>
+        <v>1363.15912721472</v>
       </c>
       <c r="S6">
-        <v>0.003083681671284772</v>
+        <v>0.001917349271847427</v>
       </c>
       <c r="T6">
-        <v>0.003083681671284772</v>
+        <v>0.001917349271847427</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H7">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J7">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>121.296082287781</v>
+        <v>124.0729296666667</v>
       </c>
       <c r="N7">
-        <v>121.296082287781</v>
+        <v>372.218789</v>
       </c>
       <c r="O7">
-        <v>0.4580104759111576</v>
+        <v>0.4024892722181133</v>
       </c>
       <c r="P7">
-        <v>0.4580104759111576</v>
+        <v>0.4024892722181133</v>
       </c>
       <c r="Q7">
-        <v>7611.877052721804</v>
+        <v>7936.673466987767</v>
       </c>
       <c r="R7">
-        <v>7611.877052721804</v>
+        <v>71430.0612028899</v>
       </c>
       <c r="S7">
-        <v>0.1667117907845796</v>
+        <v>0.100469837380772</v>
       </c>
       <c r="T7">
-        <v>0.1667117907845796</v>
+        <v>0.100469837380772</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H8">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J8">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>141.292844182643</v>
+        <v>181.8232256666666</v>
       </c>
       <c r="N8">
-        <v>141.292844182643</v>
+        <v>545.4696769999999</v>
       </c>
       <c r="O8">
-        <v>0.5335176667404401</v>
+        <v>0.5898296910336229</v>
       </c>
       <c r="P8">
-        <v>0.5335176667404401</v>
+        <v>0.5898296910336229</v>
       </c>
       <c r="Q8">
-        <v>6881.183345953462</v>
+        <v>8979.23151169035</v>
       </c>
       <c r="R8">
-        <v>6881.183345953462</v>
+        <v>80813.08360521316</v>
       </c>
       <c r="S8">
-        <v>0.1507084770780327</v>
+        <v>0.1136675124075914</v>
       </c>
       <c r="T8">
-        <v>0.1507084770780327</v>
+        <v>0.1136675124075914</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H9">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J9">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.24362358528559</v>
+        <v>2.367786666666667</v>
       </c>
       <c r="N9">
-        <v>2.24362358528559</v>
+        <v>7.10336</v>
       </c>
       <c r="O9">
-        <v>0.008471857348402325</v>
+        <v>0.007681036748263821</v>
       </c>
       <c r="P9">
-        <v>0.008471857348402325</v>
+        <v>0.007681036748263821</v>
       </c>
       <c r="Q9">
-        <v>109.2679911637886</v>
+        <v>116.9317317539556</v>
       </c>
       <c r="R9">
-        <v>109.2679911637886</v>
+        <v>1052.3855857856</v>
       </c>
       <c r="S9">
-        <v>0.002393136719915251</v>
+        <v>0.001480231248373479</v>
       </c>
       <c r="T9">
-        <v>0.002393136719915251</v>
+        <v>0.00148023124837348</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H10">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J10">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.296082287781</v>
+        <v>124.0729296666667</v>
       </c>
       <c r="N10">
-        <v>121.296082287781</v>
+        <v>372.218789</v>
       </c>
       <c r="O10">
-        <v>0.4580104759111576</v>
+        <v>0.4024892722181133</v>
       </c>
       <c r="P10">
-        <v>0.4580104759111576</v>
+        <v>0.4024892722181133</v>
       </c>
       <c r="Q10">
-        <v>5907.309646121573</v>
+        <v>6127.267601406966</v>
       </c>
       <c r="R10">
-        <v>5907.309646121573</v>
+        <v>55145.40841266269</v>
       </c>
       <c r="S10">
-        <v>0.1293791482708991</v>
+        <v>0.07756468526296495</v>
       </c>
       <c r="T10">
-        <v>0.1293791482708991</v>
+        <v>0.07756468526296495</v>
       </c>
     </row>
   </sheetData>
